--- a/TEMP/TAKHATPUR/MAYUR GENERAL.xlsx
+++ b/TEMP/TAKHATPUR/MAYUR GENERAL.xlsx
@@ -2075,6 +2075,9 @@
   </conditionalFormatting>
   <pageMargins left="0.95" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="76" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <webPublishItems count="1">
+    <webPublishItem id="29665" divId="MAYUR GENERAL_29665" sourceType="sheet" destinationFile="E:\UPDATE\WEBSITE\2084377289testbysam\TEMP\TAKHATPUR\MAYUR GENERAL.htm" autoRepublish="1"/>
+  </webPublishItems>
 </worksheet>
 </file>
 
